--- a/src/test/resources/test_data/test_set_4_skipped_choice_next/test_set_4_skipped_choice_next_cvr.xlsx
+++ b/src/test/resources/test_data/test_set_4_skipped_choice_next/test_set_4_skipped_choice_next_cvr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggilber\Documents\RCV Project\BrightSpots\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leisenberg/code/rcv/src/test/resources/test_data/test_set_4_skipped_choice_next/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607BCA1-EBFB-9447-A2EB-B1C46784F5B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="21600" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
   <si>
     <t>Ballot #</t>
   </si>
@@ -55,14 +56,11 @@
   <si>
     <t>undervote</t>
   </si>
-  <si>
-    <t>TestSet4_Skipped Choice_next</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,19 +646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="16.42578125" customWidth="1"/>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -694,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -711,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -728,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -745,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -762,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -779,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -796,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -813,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -830,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -847,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -864,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -881,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -898,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -915,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -930,11 +928,6 @@
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
